--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -663,17 +663,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -996,10 +990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1010,22 +1004,19 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1033,13 +1024,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.004</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.6092</v>
       </c>
       <c r="D3" s="1">
@@ -1050,7 +1041,7 @@
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.0004</v>
       </c>
       <c r="C4" s="1">
@@ -1064,7 +1055,7 @@
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.0004</v>
       </c>
       <c r="C5" s="1">
@@ -1106,10 +1097,10 @@
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>0.1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.008</v>
       </c>
       <c r="D8" s="1">
@@ -1120,10 +1111,10 @@
       <c r="A9" s="1">
         <v>0.3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>0.01</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.6109</v>
       </c>
       <c r="D9" s="1">
@@ -1134,10 +1125,10 @@
       <c r="A10" s="1">
         <v>0.3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>0.001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0.705</v>
       </c>
       <c r="D10" s="1">
@@ -1148,7 +1139,7 @@
       <c r="A11" s="1">
         <v>0.4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>0.001</v>
       </c>
       <c r="C11" s="1">
@@ -1162,10 +1153,10 @@
       <c r="A12" s="1">
         <v>0.4</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>0.002</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.709</v>
       </c>
       <c r="D12" s="1">
@@ -1176,7 +1167,7 @@
       <c r="A13" s="1">
         <v>0.4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>0.002</v>
       </c>
       <c r="C13" s="1">
@@ -1190,7 +1181,7 @@
       <c r="A14" s="1">
         <v>0.4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>0.003</v>
       </c>
       <c r="C14" s="1">
@@ -1200,18 +1191,29 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.0015</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.7044</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1202,6 +1202,31 @@
         <v>0.7044</v>
       </c>
       <c r="D15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.0015</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.6534</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.00015</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.5</v>
       </c>
     </row>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>ViT_large + mask + reconstruct(5scale)+episode(2shots8ways)  2024/4/12</t>
   </si>
@@ -990,10 +990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1226,13 +1226,80 @@
       <c r="B17" s="2">
         <v>0.00015</v>
       </c>
+      <c r="C17" s="1">
+        <v>0.4439</v>
+      </c>
       <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.0007</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.672</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.0008</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.6859</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.0009</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.0009</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
-    <t>ViT_large + mask + reconstruct(5scale)+episode(2shots8ways)  2024/4/12</t>
+    <t>ViT_large + mask + reconstruct(5scale)+episode(2shots8ways)+ xlsa17数据分割 + 2shot8way  2024/4/12</t>
   </si>
   <si>
     <t>mask rate</t>
@@ -46,7 +46,7 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>ViT_base + mask + reconstruct(3scale)  2024/4/14---to be continued</t>
+    <t>ViT_base + mask + reconstruct(3scale)+ xlsa17数据分割 + 2shot8way    2024/4/14---to be continued</t>
   </si>
 </sst>
 </file>
@@ -990,10 +990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1298,7 +1298,35 @@
       <c r="B26" s="2">
         <v>0.0009</v>
       </c>
+      <c r="C26" s="1">
+        <v>0.6777</v>
+      </c>
       <c r="D26" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.5</v>
       </c>
     </row>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -29,9 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t>ViT_large + mask + reconstruct(5scale)+episode(2shots8ways)+ xlsa17数据分割 + 2shot8way  2024/4/12</t>
+    <t>ViT_large + mask + reconstruct(5scale)+episode(2shots8ways)+ xlsa17数据分割 + 2shot8way + 10step 2024/4/12</t>
   </si>
   <si>
     <t>mask rate</t>
@@ -46,7 +46,13 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>ViT_base + mask + reconstruct(3scale)+ xlsa17数据分割 + 2shot8way    2024/4/14---to be continued</t>
+    <t>ViT_base + mask + reconstruct(3scale)+ xlsa17数据分割 + 2shot8way + 10step   2024/4/14---to be continued</t>
+  </si>
+  <si>
+    <t>ViT_base + mask + reconstruct(3scale)+ DUET数据分割 + 2shot8way + 10step   2024/4/14---to be continued</t>
+  </si>
+  <si>
+    <t>ViT_base + mask + reconstruct(3scale)+ DUET数据分割 + 2shot8way + 20step   2024/4/18---to be continued</t>
   </si>
 </sst>
 </file>
@@ -990,10 +996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1326,14 +1332,121 @@
       <c r="B28" s="2">
         <v>0.002</v>
       </c>
+      <c r="C28" s="1">
+        <v>0.6989</v>
+      </c>
       <c r="D28" s="1">
         <v>0.5</v>
       </c>
     </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.6907</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.0004</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.7047</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.0008</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.7144</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.0012</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.7133</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.0012</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.7128</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.0014</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.7184</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.0016</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>ViT_large + mask + reconstruct(5scale)+episode(2shots8ways)+ xlsa17数据分割 + 2shot8way + 10step 2024/4/12</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>ViT_base + mask + reconstruct(3scale)+ DUET数据分割 + 2shot8way + 20step   2024/4/18---to be continued</t>
+  </si>
+  <si>
+    <t>ViT_base + mask + reconstruct(3scale)+ DUET数据分割 + 2shot8way + 5step   2024/4/18---to be continued</t>
   </si>
 </sst>
 </file>
@@ -996,10 +999,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1007,7 +1010,8 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1433,20 +1437,74 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>0.1</v>
       </c>
       <c r="B47" s="2">
         <v>0.0016</v>
       </c>
+      <c r="C47" s="1">
+        <v>0.7163</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.0018</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.7158</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.7161</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.6416</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>ViT_large + mask + reconstruct(5scale)+episode(2shots8ways)+ xlsa17数据分割 + 2shot8way + 10step 2024/4/12</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>ViT_base + mask + reconstruct(3scale)+ DUET数据分割 + 2shot8way + 20step   2024/4/18---to be continued</t>
-  </si>
-  <si>
-    <t>ViT_base + mask + reconstruct(3scale)+ DUET数据分割 + 2shot8way + 5step   2024/4/18---to be continued</t>
   </si>
 </sst>
 </file>
@@ -999,10 +996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1451,60 +1448,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.0018</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.7158</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0.002</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.7161</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.002</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.6416</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.5</v>
-      </c>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -999,7 +999,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="D5" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
